--- a/data/trans_dic/P3A$otraSIcobra-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P3A$otraSIcobra-Dificultad-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006963518890978317</v>
+        <v>0.007566383543430056</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02362423460785669</v>
+        <v>0.02465157080440809</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01904179467663121</v>
+        <v>0.01920228070229242</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02785964347267497</v>
+        <v>0.02926368715553752</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04741347566374991</v>
+        <v>0.0468515272682842</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03438743358214912</v>
+        <v>0.03401519904123993</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.02290293212188231</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01815089527017395</v>
+        <v>0.01815089527017394</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007691390222975989</v>
+        <v>0.007238202420858326</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01637694045708039</v>
+        <v>0.01712153733513906</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01379217901969639</v>
+        <v>0.01381883937470213</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01988038744265328</v>
+        <v>0.02049224771584355</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03103881080583474</v>
+        <v>0.03130709584726542</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02345125278621376</v>
+        <v>0.02336988414328885</v>
       </c>
     </row>
     <row r="10">
@@ -677,10 +677,10 @@
         <v>0.02793893068993704</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.02822598378682442</v>
+        <v>0.02822598378682443</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.02808253690385109</v>
+        <v>0.0280825369038511</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01914706809667881</v>
+        <v>0.01964894423700261</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02023059872571458</v>
+        <v>0.02073292613456826</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02218986269846183</v>
+        <v>0.02181731526117995</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04013141195574853</v>
+        <v>0.03980310872093886</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03811948472408923</v>
+        <v>0.03823699516776587</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0351055808581365</v>
+        <v>0.03534570845838624</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.06390489669340632</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.05848589755712563</v>
+        <v>0.05848589755712561</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0395194179879486</v>
+        <v>0.04030772156660724</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05139039306900518</v>
+        <v>0.05096919110418199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04784236300954228</v>
+        <v>0.0483290897295901</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07035457157702436</v>
+        <v>0.07175266796109359</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07934221038944107</v>
+        <v>0.07773135893410496</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0690945645189892</v>
+        <v>0.06988157940414087</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.02900966752169637</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.03646238359037509</v>
+        <v>0.0364623835903751</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.03284817396191624</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02361510976014814</v>
+        <v>0.02347825181319333</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0316512678196201</v>
+        <v>0.03132970476125897</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02933670302494219</v>
+        <v>0.02943469607212596</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03550595261500496</v>
+        <v>0.03539080057267883</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04133339573720791</v>
+        <v>0.0418129690213003</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03692615179641036</v>
+        <v>0.03685731328503168</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3469</v>
+        <v>3769</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14718</v>
+        <v>15358</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>21349</v>
+        <v>21528</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13878</v>
+        <v>14577</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>29539</v>
+        <v>29189</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>38553</v>
+        <v>38136</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7385</v>
+        <v>6950</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18263</v>
+        <v>19093</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>28623</v>
+        <v>28678</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19088</v>
+        <v>19675</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>34614</v>
+        <v>34913</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>48669</v>
+        <v>48500</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20037</v>
+        <v>20562</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>21194</v>
+        <v>21721</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>46468</v>
+        <v>45688</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41997</v>
+        <v>41653</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>39936</v>
+        <v>40059</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>73515</v>
+        <v>74018</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>38549</v>
+        <v>39318</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>46783</v>
+        <v>46400</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>90221</v>
+        <v>91139</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>68627</v>
+        <v>69991</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>72229</v>
+        <v>70762</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>130298</v>
+        <v>131782</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>82185</v>
+        <v>81709</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>116988</v>
+        <v>115800</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>210531</v>
+        <v>211234</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>123567</v>
+        <v>123167</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>152775</v>
+        <v>154548</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>264995</v>
+        <v>264501</v>
       </c>
     </row>
     <row r="24">
